--- a/Greyform-linux/Python_Application/exporteddatass.xlsx
+++ b/Greyform-linux/Python_Application/exporteddatass.xlsx
@@ -445,6 +445,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Marking type</t>
@@ -487,7 +492,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -520,7 +525,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -555,7 +560,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -588,7 +593,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -623,7 +628,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -658,7 +663,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>8</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -693,7 +698,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>10</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -728,7 +733,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>13</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -761,7 +766,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>15</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -796,7 +801,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>17</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -831,7 +836,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="A12" t="n">
         <v>18</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -866,7 +871,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="A13" t="n">
         <v>19</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -901,7 +906,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="A14" t="n">
         <v>20</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -936,7 +941,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="A15" t="n">
         <v>21</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -971,7 +976,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="A16" t="n">
         <v>22</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -1006,7 +1011,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="A17" t="n">
         <v>23</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -1041,7 +1046,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="A18" t="n">
         <v>24</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -1076,7 +1081,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
+      <c r="A19" t="n">
         <v>27</v>
       </c>
       <c r="B19" t="inlineStr">
@@ -1109,7 +1114,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
+      <c r="A20" t="n">
         <v>28</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -1142,7 +1147,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
+      <c r="A21" t="n">
         <v>29</v>
       </c>
       <c r="B21" t="inlineStr">
@@ -1177,7 +1182,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
+      <c r="A22" t="n">
         <v>33</v>
       </c>
       <c r="B22" t="inlineStr">
@@ -1212,7 +1217,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
+      <c r="A23" t="n">
         <v>34</v>
       </c>
       <c r="B23" t="inlineStr">
@@ -1247,7 +1252,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
+      <c r="A24" t="n">
         <v>35</v>
       </c>
       <c r="B24" t="inlineStr">
@@ -1282,7 +1287,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
+      <c r="A25" t="n">
         <v>37</v>
       </c>
       <c r="B25" t="inlineStr">
@@ -1317,7 +1322,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
+      <c r="A26" t="n">
         <v>38</v>
       </c>
       <c r="B26" t="inlineStr">
@@ -1352,7 +1357,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
+      <c r="A27" t="n">
         <v>40</v>
       </c>
       <c r="B27" t="inlineStr">
@@ -1387,7 +1392,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
+      <c r="A28" t="n">
         <v>41</v>
       </c>
       <c r="B28" t="inlineStr">
@@ -1420,7 +1425,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
+      <c r="A29" t="n">
         <v>42</v>
       </c>
       <c r="B29" t="inlineStr">
@@ -1455,7 +1460,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
+      <c r="A30" t="n">
         <v>43</v>
       </c>
       <c r="B30" t="inlineStr">
@@ -1490,7 +1495,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
+      <c r="A31" t="n">
         <v>47</v>
       </c>
       <c r="B31" t="inlineStr">
@@ -1525,7 +1530,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
+      <c r="A32" t="n">
         <v>49</v>
       </c>
       <c r="B32" t="inlineStr">
@@ -1560,7 +1565,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
+      <c r="A33" t="n">
         <v>50</v>
       </c>
       <c r="B33" t="inlineStr">
@@ -1595,7 +1600,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
+      <c r="A34" t="n">
         <v>51</v>
       </c>
       <c r="B34" t="inlineStr">
@@ -1630,7 +1635,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
+      <c r="A35" t="n">
         <v>55</v>
       </c>
       <c r="B35" t="inlineStr">
@@ -1663,7 +1668,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
+      <c r="A36" t="n">
         <v>56</v>
       </c>
       <c r="B36" t="inlineStr">
@@ -1696,7 +1701,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
+      <c r="A37" t="n">
         <v>59</v>
       </c>
       <c r="B37" t="inlineStr">
@@ -1729,7 +1734,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
+      <c r="A38" t="n">
         <v>60</v>
       </c>
       <c r="B38" t="inlineStr">
@@ -1762,7 +1767,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
+      <c r="A39" t="n">
         <v>62</v>
       </c>
       <c r="B39" t="inlineStr">
@@ -1795,7 +1800,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
+      <c r="A40" t="n">
         <v>64</v>
       </c>
       <c r="B40" t="inlineStr">
@@ -1828,7 +1833,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
+      <c r="A41" t="n">
         <v>66</v>
       </c>
       <c r="B41" t="inlineStr">
@@ -1861,7 +1866,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
+      <c r="A42" t="n">
         <v>68</v>
       </c>
       <c r="B42" t="inlineStr">
@@ -1896,7 +1901,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
+      <c r="A43" t="n">
         <v>70</v>
       </c>
       <c r="B43" t="inlineStr">
@@ -1931,7 +1936,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
+      <c r="A44" t="n">
         <v>73</v>
       </c>
       <c r="B44" t="inlineStr">
@@ -1964,7 +1969,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
+      <c r="A45" t="n">
         <v>76</v>
       </c>
       <c r="B45" t="inlineStr">
@@ -1999,7 +2004,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
+      <c r="A46" t="n">
         <v>78</v>
       </c>
       <c r="B46" t="inlineStr">
@@ -2034,7 +2039,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
+      <c r="A47" t="n">
         <v>81</v>
       </c>
       <c r="B47" t="inlineStr">
@@ -2067,7 +2072,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
+      <c r="A48" t="n">
         <v>85</v>
       </c>
       <c r="B48" t="inlineStr">
@@ -2100,7 +2105,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
+      <c r="A49" t="n">
         <v>87</v>
       </c>
       <c r="B49" t="inlineStr">
@@ -2135,7 +2140,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
+      <c r="A50" t="n">
         <v>90</v>
       </c>
       <c r="B50" t="inlineStr">
@@ -2170,7 +2175,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
+      <c r="A51" t="n">
         <v>91</v>
       </c>
       <c r="B51" t="inlineStr">
@@ -2205,7 +2210,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
+      <c r="A52" t="n">
         <v>92</v>
       </c>
       <c r="B52" t="inlineStr">
@@ -2238,7 +2243,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
+      <c r="A53" t="n">
         <v>94</v>
       </c>
       <c r="B53" t="inlineStr">
@@ -2271,7 +2276,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
+      <c r="A54" t="n">
         <v>98</v>
       </c>
       <c r="B54" t="inlineStr">
@@ -2306,7 +2311,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
+      <c r="A55" t="n">
         <v>100</v>
       </c>
       <c r="B55" t="inlineStr">
@@ -2339,7 +2344,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
+      <c r="A56" t="n">
         <v>104</v>
       </c>
       <c r="B56" t="inlineStr">
@@ -2393,6 +2398,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Marking type</t>
@@ -2435,7 +2445,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>144</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -2489,6 +2499,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Marking type</t>
@@ -2526,7 +2541,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>159</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -2577,6 +2592,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Marking type</t>
@@ -2614,7 +2634,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>160</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -2665,6 +2685,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Marking type</t>
@@ -2707,7 +2732,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -2740,7 +2765,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -2773,7 +2798,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>7</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -2806,7 +2831,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>9</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -2839,7 +2864,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>11</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -2872,7 +2897,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>12</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -2905,7 +2930,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>14</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -2938,7 +2963,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>16</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -2971,7 +2996,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>25</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -3004,7 +3029,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>26</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -3037,7 +3062,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="A12" t="n">
         <v>30</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -3070,7 +3095,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="A13" t="n">
         <v>31</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -3103,7 +3128,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="A14" t="n">
         <v>32</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -3136,7 +3161,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="A15" t="n">
         <v>36</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -3169,7 +3194,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="A16" t="n">
         <v>39</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -3202,7 +3227,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="A17" t="n">
         <v>44</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -3235,7 +3260,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="A18" t="n">
         <v>45</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -3268,7 +3293,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
+      <c r="A19" t="n">
         <v>46</v>
       </c>
       <c r="B19" t="inlineStr">
@@ -3301,7 +3326,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
+      <c r="A20" t="n">
         <v>48</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -3334,7 +3359,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
+      <c r="A21" t="n">
         <v>52</v>
       </c>
       <c r="B21" t="inlineStr">
@@ -3367,7 +3392,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
+      <c r="A22" t="n">
         <v>53</v>
       </c>
       <c r="B22" t="inlineStr">
@@ -3400,7 +3425,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
+      <c r="A23" t="n">
         <v>57</v>
       </c>
       <c r="B23" t="inlineStr">
@@ -3433,7 +3458,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
+      <c r="A24" t="n">
         <v>61</v>
       </c>
       <c r="B24" t="inlineStr">
@@ -3466,7 +3491,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
+      <c r="A25" t="n">
         <v>63</v>
       </c>
       <c r="B25" t="inlineStr">
@@ -3499,7 +3524,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
+      <c r="A26" t="n">
         <v>65</v>
       </c>
       <c r="B26" t="inlineStr">
@@ -3532,7 +3557,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
+      <c r="A27" t="n">
         <v>67</v>
       </c>
       <c r="B27" t="inlineStr">
@@ -3565,7 +3590,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
+      <c r="A28" t="n">
         <v>69</v>
       </c>
       <c r="B28" t="inlineStr">
@@ -3598,7 +3623,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
+      <c r="A29" t="n">
         <v>71</v>
       </c>
       <c r="B29" t="inlineStr">
@@ -3631,7 +3656,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
+      <c r="A30" t="n">
         <v>72</v>
       </c>
       <c r="B30" t="inlineStr">
@@ -3664,7 +3689,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
+      <c r="A31" t="n">
         <v>74</v>
       </c>
       <c r="B31" t="inlineStr">
@@ -3697,7 +3722,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
+      <c r="A32" t="n">
         <v>75</v>
       </c>
       <c r="B32" t="inlineStr">
@@ -3730,7 +3755,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
+      <c r="A33" t="n">
         <v>77</v>
       </c>
       <c r="B33" t="inlineStr">
@@ -3763,7 +3788,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
+      <c r="A34" t="n">
         <v>79</v>
       </c>
       <c r="B34" t="inlineStr">
@@ -3796,7 +3821,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
+      <c r="A35" t="n">
         <v>80</v>
       </c>
       <c r="B35" t="inlineStr">
@@ -3829,7 +3854,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
+      <c r="A36" t="n">
         <v>82</v>
       </c>
       <c r="B36" t="inlineStr">
@@ -3862,7 +3887,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
+      <c r="A37" t="n">
         <v>83</v>
       </c>
       <c r="B37" t="inlineStr">
@@ -3895,7 +3920,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
+      <c r="A38" t="n">
         <v>84</v>
       </c>
       <c r="B38" t="inlineStr">
@@ -3928,7 +3953,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
+      <c r="A39" t="n">
         <v>86</v>
       </c>
       <c r="B39" t="inlineStr">
@@ -3961,7 +3986,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
+      <c r="A40" t="n">
         <v>88</v>
       </c>
       <c r="B40" t="inlineStr">
@@ -3994,7 +4019,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
+      <c r="A41" t="n">
         <v>89</v>
       </c>
       <c r="B41" t="inlineStr">
@@ -4027,7 +4052,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
+      <c r="A42" t="n">
         <v>93</v>
       </c>
       <c r="B42" t="inlineStr">
@@ -4060,7 +4085,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
+      <c r="A43" t="n">
         <v>95</v>
       </c>
       <c r="B43" t="inlineStr">
@@ -4093,7 +4118,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
+      <c r="A44" t="n">
         <v>96</v>
       </c>
       <c r="B44" t="inlineStr">
@@ -4126,7 +4151,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
+      <c r="A45" t="n">
         <v>97</v>
       </c>
       <c r="B45" t="inlineStr">
@@ -4159,7 +4184,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
+      <c r="A46" t="n">
         <v>99</v>
       </c>
       <c r="B46" t="inlineStr">
@@ -4192,7 +4217,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
+      <c r="A47" t="n">
         <v>101</v>
       </c>
       <c r="B47" t="inlineStr">
@@ -4225,7 +4250,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
+      <c r="A48" t="n">
         <v>102</v>
       </c>
       <c r="B48" t="inlineStr">
@@ -4258,7 +4283,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
+      <c r="A49" t="n">
         <v>107</v>
       </c>
       <c r="B49" t="inlineStr">
@@ -4291,7 +4316,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
+      <c r="A50" t="n">
         <v>108</v>
       </c>
       <c r="B50" t="inlineStr">
@@ -4324,7 +4349,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
+      <c r="A51" t="n">
         <v>109</v>
       </c>
       <c r="B51" t="inlineStr">
@@ -4357,7 +4382,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
+      <c r="A52" t="n">
         <v>153</v>
       </c>
       <c r="B52" t="inlineStr">
@@ -4411,6 +4436,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Marking type</t>
@@ -4453,7 +4483,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>54</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -4486,7 +4516,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>58</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -4519,7 +4549,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>137</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -4554,7 +4584,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>138</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -4589,7 +4619,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>142</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -4622,7 +4652,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>143</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -4657,7 +4687,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>148</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -4690,7 +4720,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>149</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -4723,7 +4753,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>155</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -4756,7 +4786,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>156</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -4791,7 +4821,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="A12" t="n">
         <v>161</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -4826,7 +4856,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="A13" t="n">
         <v>162</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -4861,7 +4891,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="A14" t="n">
         <v>163</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -4896,7 +4926,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="A15" t="n">
         <v>164</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -4931,7 +4961,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="A16" t="n">
         <v>165</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -4966,7 +4996,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="A17" t="n">
         <v>166</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -5001,7 +5031,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="A18" t="n">
         <v>167</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -5036,7 +5066,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
+      <c r="A19" t="n">
         <v>168</v>
       </c>
       <c r="B19" t="inlineStr">
@@ -5071,7 +5101,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
+      <c r="A20" t="n">
         <v>169</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -5106,7 +5136,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
+      <c r="A21" t="n">
         <v>170</v>
       </c>
       <c r="B21" t="inlineStr">
@@ -5141,7 +5171,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
+      <c r="A22" t="n">
         <v>171</v>
       </c>
       <c r="B22" t="inlineStr">
@@ -5176,7 +5206,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
+      <c r="A23" t="n">
         <v>172</v>
       </c>
       <c r="B23" t="inlineStr">
@@ -5211,7 +5241,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
+      <c r="A24" t="n">
         <v>173</v>
       </c>
       <c r="B24" t="inlineStr">
@@ -5246,7 +5276,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
+      <c r="A25" t="n">
         <v>174</v>
       </c>
       <c r="B25" t="inlineStr">
@@ -5281,7 +5311,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
+      <c r="A26" t="n">
         <v>175</v>
       </c>
       <c r="B26" t="inlineStr">
@@ -5316,7 +5346,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
+      <c r="A27" t="n">
         <v>176</v>
       </c>
       <c r="B27" t="inlineStr">
@@ -5351,7 +5381,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
+      <c r="A28" t="n">
         <v>177</v>
       </c>
       <c r="B28" t="inlineStr">
@@ -5386,7 +5416,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
+      <c r="A29" t="n">
         <v>178</v>
       </c>
       <c r="B29" t="inlineStr">
@@ -5421,7 +5451,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
+      <c r="A30" t="n">
         <v>179</v>
       </c>
       <c r="B30" t="inlineStr">
@@ -5456,7 +5486,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
+      <c r="A31" t="n">
         <v>180</v>
       </c>
       <c r="B31" t="inlineStr">
@@ -5491,7 +5521,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
+      <c r="A32" t="n">
         <v>181</v>
       </c>
       <c r="B32" t="inlineStr">
@@ -5526,7 +5556,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
+      <c r="A33" t="n">
         <v>182</v>
       </c>
       <c r="B33" t="inlineStr">
@@ -5561,7 +5591,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
+      <c r="A34" t="n">
         <v>183</v>
       </c>
       <c r="B34" t="inlineStr">
@@ -5596,7 +5626,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
+      <c r="A35" t="n">
         <v>184</v>
       </c>
       <c r="B35" t="inlineStr">
@@ -5631,7 +5661,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
+      <c r="A36" t="n">
         <v>185</v>
       </c>
       <c r="B36" t="inlineStr">
@@ -5666,7 +5696,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
+      <c r="A37" t="n">
         <v>186</v>
       </c>
       <c r="B37" t="inlineStr">
@@ -5701,7 +5731,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
+      <c r="A38" t="n">
         <v>187</v>
       </c>
       <c r="B38" t="inlineStr">
@@ -5736,7 +5766,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
+      <c r="A39" t="n">
         <v>188</v>
       </c>
       <c r="B39" t="inlineStr">
@@ -5771,7 +5801,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
+      <c r="A40" t="n">
         <v>189</v>
       </c>
       <c r="B40" t="inlineStr">
@@ -5806,7 +5836,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
+      <c r="A41" t="n">
         <v>190</v>
       </c>
       <c r="B41" t="inlineStr">
@@ -5841,7 +5871,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
+      <c r="A42" t="n">
         <v>191</v>
       </c>
       <c r="B42" t="inlineStr">
@@ -5876,7 +5906,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
+      <c r="A43" t="n">
         <v>192</v>
       </c>
       <c r="B43" t="inlineStr">
@@ -5911,7 +5941,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
+      <c r="A44" t="n">
         <v>193</v>
       </c>
       <c r="B44" t="inlineStr">
@@ -5946,7 +5976,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
+      <c r="A45" t="n">
         <v>194</v>
       </c>
       <c r="B45" t="inlineStr">
@@ -5981,7 +6011,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
+      <c r="A46" t="n">
         <v>195</v>
       </c>
       <c r="B46" t="inlineStr">
@@ -6016,7 +6046,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
+      <c r="A47" t="n">
         <v>196</v>
       </c>
       <c r="B47" t="inlineStr">
@@ -6051,7 +6081,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
+      <c r="A48" t="n">
         <v>197</v>
       </c>
       <c r="B48" t="inlineStr">
@@ -6086,7 +6116,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
+      <c r="A49" t="n">
         <v>198</v>
       </c>
       <c r="B49" t="inlineStr">
@@ -6121,7 +6151,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
+      <c r="A50" t="n">
         <v>199</v>
       </c>
       <c r="B50" t="inlineStr">
@@ -6156,7 +6186,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
+      <c r="A51" t="n">
         <v>200</v>
       </c>
       <c r="B51" t="inlineStr">
@@ -6191,7 +6221,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
+      <c r="A52" t="n">
         <v>201</v>
       </c>
       <c r="B52" t="inlineStr">
@@ -6226,7 +6256,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
+      <c r="A53" t="n">
         <v>202</v>
       </c>
       <c r="B53" t="inlineStr">
@@ -6261,7 +6291,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
+      <c r="A54" t="n">
         <v>203</v>
       </c>
       <c r="B54" t="inlineStr">
@@ -6296,7 +6326,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
+      <c r="A55" t="n">
         <v>204</v>
       </c>
       <c r="B55" t="inlineStr">
@@ -6331,7 +6361,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
+      <c r="A56" t="n">
         <v>205</v>
       </c>
       <c r="B56" t="inlineStr">
@@ -6366,7 +6396,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
+      <c r="A57" t="n">
         <v>206</v>
       </c>
       <c r="B57" t="inlineStr">
@@ -6401,7 +6431,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
+      <c r="A58" t="n">
         <v>207</v>
       </c>
       <c r="B58" t="inlineStr">
@@ -6436,7 +6466,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
+      <c r="A59" t="n">
         <v>208</v>
       </c>
       <c r="B59" t="inlineStr">
@@ -6471,7 +6501,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
+      <c r="A60" t="n">
         <v>209</v>
       </c>
       <c r="B60" t="inlineStr">
@@ -6506,7 +6536,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
+      <c r="A61" t="n">
         <v>210</v>
       </c>
       <c r="B61" t="inlineStr">
@@ -6541,7 +6571,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
+      <c r="A62" t="n">
         <v>211</v>
       </c>
       <c r="B62" t="inlineStr">
@@ -6576,7 +6606,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
+      <c r="A63" t="n">
         <v>212</v>
       </c>
       <c r="B63" t="inlineStr">
@@ -6611,7 +6641,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
+      <c r="A64" t="n">
         <v>213</v>
       </c>
       <c r="B64" t="inlineStr">
@@ -6646,7 +6676,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
+      <c r="A65" t="n">
         <v>214</v>
       </c>
       <c r="B65" t="inlineStr">
@@ -6681,7 +6711,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
+      <c r="A66" t="n">
         <v>215</v>
       </c>
       <c r="B66" t="inlineStr">
@@ -6716,7 +6746,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
+      <c r="A67" t="n">
         <v>216</v>
       </c>
       <c r="B67" t="inlineStr">
@@ -6751,7 +6781,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
+      <c r="A68" t="n">
         <v>217</v>
       </c>
       <c r="B68" t="inlineStr">
@@ -6786,7 +6816,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
+      <c r="A69" t="n">
         <v>218</v>
       </c>
       <c r="B69" t="inlineStr">
@@ -6821,7 +6851,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
+      <c r="A70" t="n">
         <v>219</v>
       </c>
       <c r="B70" t="inlineStr">
@@ -6856,7 +6886,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
+      <c r="A71" t="n">
         <v>220</v>
       </c>
       <c r="B71" t="inlineStr">
@@ -6891,7 +6921,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
+      <c r="A72" t="n">
         <v>221</v>
       </c>
       <c r="B72" t="inlineStr">
@@ -6926,7 +6956,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
+      <c r="A73" t="n">
         <v>222</v>
       </c>
       <c r="B73" t="inlineStr">
@@ -6961,7 +6991,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
+      <c r="A74" t="n">
         <v>223</v>
       </c>
       <c r="B74" t="inlineStr">
@@ -6996,7 +7026,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
+      <c r="A75" t="n">
         <v>224</v>
       </c>
       <c r="B75" t="inlineStr">
@@ -7031,7 +7061,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
+      <c r="A76" t="n">
         <v>225</v>
       </c>
       <c r="B76" t="inlineStr">
@@ -7066,7 +7096,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
+      <c r="A77" t="n">
         <v>226</v>
       </c>
       <c r="B77" t="inlineStr">
@@ -7101,7 +7131,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
+      <c r="A78" t="n">
         <v>227</v>
       </c>
       <c r="B78" t="inlineStr">
@@ -7136,7 +7166,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
+      <c r="A79" t="n">
         <v>228</v>
       </c>
       <c r="B79" t="inlineStr">
@@ -7171,7 +7201,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n">
+      <c r="A80" t="n">
         <v>229</v>
       </c>
       <c r="B80" t="inlineStr">
@@ -7206,7 +7236,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n">
+      <c r="A81" t="n">
         <v>230</v>
       </c>
       <c r="B81" t="inlineStr">
@@ -7241,7 +7271,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n">
+      <c r="A82" t="n">
         <v>231</v>
       </c>
       <c r="B82" t="inlineStr">
@@ -7276,7 +7306,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n">
+      <c r="A83" t="n">
         <v>232</v>
       </c>
       <c r="B83" t="inlineStr">
@@ -7311,7 +7341,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n">
+      <c r="A84" t="n">
         <v>233</v>
       </c>
       <c r="B84" t="inlineStr">
@@ -7346,7 +7376,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n">
+      <c r="A85" t="n">
         <v>234</v>
       </c>
       <c r="B85" t="inlineStr">
@@ -7381,7 +7411,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n">
+      <c r="A86" t="n">
         <v>235</v>
       </c>
       <c r="B86" t="inlineStr">
@@ -7416,7 +7446,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n">
+      <c r="A87" t="n">
         <v>236</v>
       </c>
       <c r="B87" t="inlineStr">
@@ -7451,7 +7481,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n">
+      <c r="A88" t="n">
         <v>237</v>
       </c>
       <c r="B88" t="inlineStr">
@@ -7486,7 +7516,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n">
+      <c r="A89" t="n">
         <v>238</v>
       </c>
       <c r="B89" t="inlineStr">
@@ -7521,7 +7551,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="n">
+      <c r="A90" t="n">
         <v>239</v>
       </c>
       <c r="B90" t="inlineStr">
@@ -7556,7 +7586,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n">
+      <c r="A91" t="n">
         <v>240</v>
       </c>
       <c r="B91" t="inlineStr">
@@ -7591,7 +7621,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n">
+      <c r="A92" t="n">
         <v>241</v>
       </c>
       <c r="B92" t="inlineStr">
@@ -7626,7 +7656,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="n">
+      <c r="A93" t="n">
         <v>242</v>
       </c>
       <c r="B93" t="inlineStr">
@@ -7661,7 +7691,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n">
+      <c r="A94" t="n">
         <v>243</v>
       </c>
       <c r="B94" t="inlineStr">
@@ -7696,7 +7726,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="n">
+      <c r="A95" t="n">
         <v>244</v>
       </c>
       <c r="B95" t="inlineStr">
@@ -7731,7 +7761,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="n">
+      <c r="A96" t="n">
         <v>245</v>
       </c>
       <c r="B96" t="inlineStr">
@@ -7766,7 +7796,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="n">
+      <c r="A97" t="n">
         <v>246</v>
       </c>
       <c r="B97" t="inlineStr">
@@ -7801,7 +7831,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n">
+      <c r="A98" t="n">
         <v>247</v>
       </c>
       <c r="B98" t="inlineStr">
@@ -7836,7 +7866,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="n">
+      <c r="A99" t="n">
         <v>248</v>
       </c>
       <c r="B99" t="inlineStr">
@@ -7871,7 +7901,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="n">
+      <c r="A100" t="n">
         <v>249</v>
       </c>
       <c r="B100" t="inlineStr">
@@ -7906,7 +7936,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n">
+      <c r="A101" t="n">
         <v>250</v>
       </c>
       <c r="B101" t="inlineStr">
@@ -7941,7 +7971,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="n">
+      <c r="A102" t="n">
         <v>251</v>
       </c>
       <c r="B102" t="inlineStr">
@@ -7976,7 +8006,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="n">
+      <c r="A103" t="n">
         <v>252</v>
       </c>
       <c r="B103" t="inlineStr">
@@ -8011,7 +8041,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="n">
+      <c r="A104" t="n">
         <v>253</v>
       </c>
       <c r="B104" t="inlineStr">
@@ -8046,7 +8076,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="n">
+      <c r="A105" t="n">
         <v>254</v>
       </c>
       <c r="B105" t="inlineStr">
@@ -8081,7 +8111,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="n">
+      <c r="A106" t="n">
         <v>255</v>
       </c>
       <c r="B106" t="inlineStr">
@@ -8116,7 +8146,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="n">
+      <c r="A107" t="n">
         <v>256</v>
       </c>
       <c r="B107" t="inlineStr">
@@ -8151,7 +8181,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="n">
+      <c r="A108" t="n">
         <v>257</v>
       </c>
       <c r="B108" t="inlineStr">
@@ -8186,7 +8216,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="n">
+      <c r="A109" t="n">
         <v>258</v>
       </c>
       <c r="B109" t="inlineStr">
@@ -8216,12 +8246,12 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="n">
+      <c r="A110" t="n">
         <v>259</v>
       </c>
       <c r="B110" t="inlineStr">
@@ -8256,7 +8286,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="n">
+      <c r="A111" t="n">
         <v>260</v>
       </c>
       <c r="B111" t="inlineStr">
@@ -8291,7 +8321,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="n">
+      <c r="A112" t="n">
         <v>261</v>
       </c>
       <c r="B112" t="inlineStr">
@@ -8326,7 +8356,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="n">
+      <c r="A113" t="n">
         <v>262</v>
       </c>
       <c r="B113" t="inlineStr">
@@ -8361,7 +8391,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="n">
+      <c r="A114" t="n">
         <v>263</v>
       </c>
       <c r="B114" t="inlineStr">
@@ -8396,7 +8426,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="n">
+      <c r="A115" t="n">
         <v>264</v>
       </c>
       <c r="B115" t="inlineStr">
@@ -8431,7 +8461,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="n">
+      <c r="A116" t="n">
         <v>265</v>
       </c>
       <c r="B116" t="inlineStr">
@@ -8466,7 +8496,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="n">
+      <c r="A117" t="n">
         <v>266</v>
       </c>
       <c r="B117" t="inlineStr">
@@ -8501,7 +8531,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="n">
+      <c r="A118" t="n">
         <v>267</v>
       </c>
       <c r="B118" t="inlineStr">
@@ -8536,7 +8566,7 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="n">
+      <c r="A119" t="n">
         <v>268</v>
       </c>
       <c r="B119" t="inlineStr">
@@ -8571,7 +8601,7 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="n">
+      <c r="A120" t="n">
         <v>269</v>
       </c>
       <c r="B120" t="inlineStr">
@@ -8606,7 +8636,7 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="n">
+      <c r="A121" t="n">
         <v>270</v>
       </c>
       <c r="B121" t="inlineStr">
@@ -8641,7 +8671,7 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="n">
+      <c r="A122" t="n">
         <v>271</v>
       </c>
       <c r="B122" t="inlineStr">
@@ -8676,7 +8706,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="n">
+      <c r="A123" t="n">
         <v>272</v>
       </c>
       <c r="B123" t="inlineStr">
@@ -8711,7 +8741,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="n">
+      <c r="A124" t="n">
         <v>273</v>
       </c>
       <c r="B124" t="inlineStr">
@@ -8746,7 +8776,7 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="n">
+      <c r="A125" t="n">
         <v>274</v>
       </c>
       <c r="B125" t="inlineStr">
@@ -8781,7 +8811,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="n">
+      <c r="A126" t="n">
         <v>275</v>
       </c>
       <c r="B126" t="inlineStr">
@@ -8816,7 +8846,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="n">
+      <c r="A127" t="n">
         <v>276</v>
       </c>
       <c r="B127" t="inlineStr">
@@ -8851,7 +8881,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="n">
+      <c r="A128" t="n">
         <v>277</v>
       </c>
       <c r="B128" t="inlineStr">
@@ -8886,7 +8916,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="n">
+      <c r="A129" t="n">
         <v>278</v>
       </c>
       <c r="B129" t="inlineStr">
@@ -8921,7 +8951,7 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="n">
+      <c r="A130" t="n">
         <v>279</v>
       </c>
       <c r="B130" t="inlineStr">
@@ -8956,7 +8986,7 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="n">
+      <c r="A131" t="n">
         <v>280</v>
       </c>
       <c r="B131" t="inlineStr">
@@ -8991,7 +9021,7 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="n">
+      <c r="A132" t="n">
         <v>281</v>
       </c>
       <c r="B132" t="inlineStr">
@@ -9026,7 +9056,7 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="n">
+      <c r="A133" t="n">
         <v>282</v>
       </c>
       <c r="B133" t="inlineStr">
@@ -9061,7 +9091,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="n">
+      <c r="A134" t="n">
         <v>283</v>
       </c>
       <c r="B134" t="inlineStr">
@@ -9096,7 +9126,7 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="n">
+      <c r="A135" t="n">
         <v>284</v>
       </c>
       <c r="B135" t="inlineStr">
@@ -9131,7 +9161,7 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="n">
+      <c r="A136" t="n">
         <v>285</v>
       </c>
       <c r="B136" t="inlineStr">
@@ -9166,7 +9196,7 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="n">
+      <c r="A137" t="n">
         <v>286</v>
       </c>
       <c r="B137" t="inlineStr">
@@ -9201,7 +9231,7 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="n">
+      <c r="A138" t="n">
         <v>287</v>
       </c>
       <c r="B138" t="inlineStr">
@@ -9236,7 +9266,7 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="n">
+      <c r="A139" t="n">
         <v>288</v>
       </c>
       <c r="B139" t="inlineStr">
@@ -9271,7 +9301,7 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="1" t="n">
+      <c r="A140" t="n">
         <v>289</v>
       </c>
       <c r="B140" t="inlineStr">
@@ -9306,7 +9336,7 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="1" t="n">
+      <c r="A141" t="n">
         <v>290</v>
       </c>
       <c r="B141" t="inlineStr">
@@ -9341,7 +9371,7 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="n">
+      <c r="A142" t="n">
         <v>291</v>
       </c>
       <c r="B142" t="inlineStr">
@@ -9376,7 +9406,7 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="1" t="n">
+      <c r="A143" t="n">
         <v>292</v>
       </c>
       <c r="B143" t="inlineStr">
@@ -9411,7 +9441,7 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="1" t="n">
+      <c r="A144" t="n">
         <v>293</v>
       </c>
       <c r="B144" t="inlineStr">
@@ -9446,7 +9476,7 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="n">
+      <c r="A145" t="n">
         <v>294</v>
       </c>
       <c r="B145" t="inlineStr">
@@ -9500,6 +9530,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Marking type</t>
@@ -9537,7 +9572,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>103</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -9569,7 +9604,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>105</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -9601,7 +9636,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>106</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -9652,6 +9687,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Marking type</t>
@@ -9694,7 +9734,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>110</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -9729,7 +9769,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>111</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -9764,7 +9804,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>112</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -9799,7 +9839,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>113</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -9834,7 +9874,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>115</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -9869,7 +9909,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>116</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -9904,7 +9944,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>117</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -9937,7 +9977,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>119</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -9972,7 +10012,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>121</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -10007,7 +10047,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>122</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -10042,7 +10082,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="A12" t="n">
         <v>123</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -10077,7 +10117,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="A13" t="n">
         <v>128</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -10112,7 +10152,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="A14" t="n">
         <v>135</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -10145,7 +10185,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="A15" t="n">
         <v>157</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -10199,6 +10239,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Marking type</t>
@@ -10241,7 +10286,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>114</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -10276,7 +10321,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>118</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -10311,7 +10356,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>120</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -10346,7 +10391,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>129</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -10381,7 +10426,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>131</v>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -10406,7 +10451,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>132</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -10439,7 +10484,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>133</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -10472,7 +10517,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>158</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -10507,7 +10552,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>295</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -10542,7 +10587,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>296</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -10577,7 +10622,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="A12" t="n">
         <v>297</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -10612,7 +10657,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="A13" t="n">
         <v>298</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -10647,7 +10692,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="A14" t="n">
         <v>299</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -10699,6 +10744,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Marking type</t>
@@ -10741,7 +10791,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>124</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -10774,7 +10824,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>125</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -10809,7 +10859,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>126</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -10844,7 +10894,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>127</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -10877,7 +10927,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>130</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -10910,7 +10960,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>140</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -10943,7 +10993,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>145</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -10997,6 +11047,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Marking type</t>
@@ -11039,7 +11094,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>134</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -11093,6 +11148,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Marking type</t>
@@ -11135,7 +11195,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>136</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -11170,7 +11230,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>139</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -11205,7 +11265,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>141</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -11240,7 +11300,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>146</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -11275,7 +11335,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>147</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -11308,7 +11368,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>150</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -11341,7 +11401,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>151</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -11374,7 +11434,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>152</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -11407,7 +11467,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>154</v>
       </c>
       <c r="B10" t="inlineStr">

--- a/Greyform-linux/Python_Application/exporteddatass.xlsx
+++ b/Greyform-linux/Python_Application/exporteddatass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MokZhiZhuan\OneDrive - WINSYS TECHNOLOGY PTE LTD\Documents\GitHub\GreyForm_UI\Greyform-linux\Python_Application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297B2859-B272-407C-BBD5-6FC498529D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255E8493-61F4-4041-93B9-8F47F5CD228C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="1080" windowWidth="21600" windowHeight="11295" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="495">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -1880,8 +1880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I1" sqref="A1:I56"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2873,6 +2873,9 @@
       <c r="F35">
         <v>0</v>
       </c>
+      <c r="G35" t="s">
+        <v>494</v>
+      </c>
       <c r="H35">
         <v>6</v>
       </c>
@@ -2899,6 +2902,9 @@
       <c r="F36">
         <v>0</v>
       </c>
+      <c r="G36" t="s">
+        <v>494</v>
+      </c>
       <c r="H36">
         <v>6</v>
       </c>
@@ -2925,6 +2931,9 @@
       <c r="F37">
         <v>0</v>
       </c>
+      <c r="G37" t="s">
+        <v>494</v>
+      </c>
       <c r="H37">
         <v>6</v>
       </c>
@@ -2951,6 +2960,9 @@
       <c r="F38">
         <v>0</v>
       </c>
+      <c r="G38" t="s">
+        <v>494</v>
+      </c>
       <c r="H38">
         <v>6</v>
       </c>
@@ -2977,6 +2989,9 @@
       <c r="F39">
         <v>0</v>
       </c>
+      <c r="G39" t="s">
+        <v>494</v>
+      </c>
       <c r="H39">
         <v>6</v>
       </c>
@@ -3003,6 +3018,9 @@
       <c r="F40">
         <v>0</v>
       </c>
+      <c r="G40" t="s">
+        <v>494</v>
+      </c>
       <c r="H40">
         <v>6</v>
       </c>
@@ -3029,6 +3047,9 @@
       <c r="F41">
         <v>0</v>
       </c>
+      <c r="G41" t="s">
+        <v>494</v>
+      </c>
       <c r="H41">
         <v>6</v>
       </c>
@@ -3113,6 +3134,9 @@
       <c r="F44">
         <v>0</v>
       </c>
+      <c r="G44" t="s">
+        <v>494</v>
+      </c>
       <c r="H44">
         <v>6</v>
       </c>
@@ -3197,6 +3221,9 @@
       <c r="F47">
         <v>0</v>
       </c>
+      <c r="G47" t="s">
+        <v>494</v>
+      </c>
       <c r="H47">
         <v>6</v>
       </c>
@@ -3223,6 +3250,9 @@
       <c r="F48">
         <v>0</v>
       </c>
+      <c r="G48" t="s">
+        <v>494</v>
+      </c>
       <c r="H48">
         <v>6</v>
       </c>
@@ -3336,6 +3366,9 @@
       <c r="F52">
         <v>0</v>
       </c>
+      <c r="G52" t="s">
+        <v>494</v>
+      </c>
       <c r="H52">
         <v>6</v>
       </c>
@@ -3362,6 +3395,9 @@
       <c r="F53">
         <v>0</v>
       </c>
+      <c r="G53" t="s">
+        <v>494</v>
+      </c>
       <c r="H53">
         <v>6</v>
       </c>
@@ -3416,6 +3452,9 @@
       </c>
       <c r="F55">
         <v>0</v>
+      </c>
+      <c r="G55" t="s">
+        <v>494</v>
       </c>
       <c r="H55">
         <v>6</v>
@@ -3663,8 +3702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection sqref="A1:I52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3717,6 +3756,9 @@
       <c r="F2">
         <v>215</v>
       </c>
+      <c r="G2" t="s">
+        <v>494</v>
+      </c>
       <c r="H2">
         <v>6</v>
       </c>
@@ -3743,6 +3785,9 @@
       <c r="F3">
         <v>215</v>
       </c>
+      <c r="G3" t="s">
+        <v>494</v>
+      </c>
       <c r="H3">
         <v>6</v>
       </c>
@@ -3769,6 +3814,9 @@
       <c r="F4">
         <v>800</v>
       </c>
+      <c r="G4" t="s">
+        <v>494</v>
+      </c>
       <c r="H4">
         <v>6</v>
       </c>
@@ -3795,6 +3843,9 @@
       <c r="F5">
         <v>800</v>
       </c>
+      <c r="G5" t="s">
+        <v>494</v>
+      </c>
       <c r="H5">
         <v>6</v>
       </c>
@@ -3820,6 +3871,9 @@
       </c>
       <c r="F6">
         <v>950</v>
+      </c>
+      <c r="G6" t="s">
+        <v>494</v>
       </c>
       <c r="H6">
         <v>6</v>
@@ -3847,6 +3901,9 @@
       <c r="F7">
         <v>556</v>
       </c>
+      <c r="G7" t="s">
+        <v>494</v>
+      </c>
       <c r="H7">
         <v>6</v>
       </c>
@@ -3873,6 +3930,9 @@
       <c r="F8">
         <v>-85</v>
       </c>
+      <c r="G8" t="s">
+        <v>494</v>
+      </c>
       <c r="H8">
         <v>6</v>
       </c>
@@ -3899,6 +3959,9 @@
       <c r="F9">
         <v>515</v>
       </c>
+      <c r="G9" t="s">
+        <v>494</v>
+      </c>
       <c r="H9">
         <v>6</v>
       </c>
@@ -3925,6 +3988,9 @@
       <c r="F10">
         <v>550</v>
       </c>
+      <c r="G10" t="s">
+        <v>494</v>
+      </c>
       <c r="H10">
         <v>6</v>
       </c>
@@ -3951,6 +4017,9 @@
       <c r="F11">
         <v>549</v>
       </c>
+      <c r="G11" t="s">
+        <v>494</v>
+      </c>
       <c r="H11">
         <v>6</v>
       </c>
@@ -3977,6 +4046,9 @@
       <c r="F12">
         <v>-59</v>
       </c>
+      <c r="G12" t="s">
+        <v>494</v>
+      </c>
       <c r="H12">
         <v>6</v>
       </c>
@@ -4003,6 +4075,9 @@
       <c r="F13">
         <v>2439</v>
       </c>
+      <c r="G13" t="s">
+        <v>494</v>
+      </c>
       <c r="H13">
         <v>6</v>
       </c>
@@ -4029,6 +4104,9 @@
       <c r="F14">
         <v>2469</v>
       </c>
+      <c r="G14" t="s">
+        <v>494</v>
+      </c>
       <c r="H14">
         <v>6</v>
       </c>
@@ -4055,6 +4133,9 @@
       <c r="F15">
         <v>1004</v>
       </c>
+      <c r="G15" t="s">
+        <v>494</v>
+      </c>
       <c r="H15">
         <v>6</v>
       </c>
@@ -4081,6 +4162,9 @@
       <c r="F16">
         <v>1004</v>
       </c>
+      <c r="G16" t="s">
+        <v>494</v>
+      </c>
       <c r="H16">
         <v>6</v>
       </c>
@@ -4107,6 +4191,9 @@
       <c r="F17">
         <v>275</v>
       </c>
+      <c r="G17" t="s">
+        <v>494</v>
+      </c>
       <c r="H17">
         <v>6</v>
       </c>
@@ -4133,6 +4220,9 @@
       <c r="F18">
         <v>-1775</v>
       </c>
+      <c r="G18" t="s">
+        <v>494</v>
+      </c>
       <c r="H18">
         <v>6</v>
       </c>
@@ -4159,6 +4249,9 @@
       <c r="F19">
         <v>-1747</v>
       </c>
+      <c r="G19" t="s">
+        <v>494</v>
+      </c>
       <c r="H19">
         <v>6</v>
       </c>
@@ -4185,6 +4278,9 @@
       <c r="F20">
         <v>577</v>
       </c>
+      <c r="G20" t="s">
+        <v>494</v>
+      </c>
       <c r="H20">
         <v>6</v>
       </c>
@@ -4211,6 +4307,9 @@
       <c r="F21">
         <v>-60</v>
       </c>
+      <c r="G21" t="s">
+        <v>494</v>
+      </c>
       <c r="H21">
         <v>6</v>
       </c>
@@ -4237,6 +4336,9 @@
       <c r="F22">
         <v>2440</v>
       </c>
+      <c r="G22" t="s">
+        <v>494</v>
+      </c>
       <c r="H22">
         <v>6</v>
       </c>
@@ -4263,6 +4365,9 @@
       <c r="F23">
         <v>-91</v>
       </c>
+      <c r="G23" t="s">
+        <v>494</v>
+      </c>
       <c r="H23">
         <v>6</v>
       </c>
@@ -4289,6 +4394,9 @@
       <c r="F24">
         <v>-100</v>
       </c>
+      <c r="G24" t="s">
+        <v>494</v>
+      </c>
       <c r="H24">
         <v>6</v>
       </c>
@@ -4315,6 +4423,9 @@
       <c r="F25">
         <v>-100</v>
       </c>
+      <c r="G25" t="s">
+        <v>494</v>
+      </c>
       <c r="H25">
         <v>6</v>
       </c>
@@ -4341,6 +4452,9 @@
       <c r="F26">
         <v>40</v>
       </c>
+      <c r="G26" t="s">
+        <v>494</v>
+      </c>
       <c r="H26">
         <v>6</v>
       </c>
@@ -4367,6 +4481,9 @@
       <c r="F27">
         <v>70</v>
       </c>
+      <c r="G27" t="s">
+        <v>494</v>
+      </c>
       <c r="H27">
         <v>6</v>
       </c>
@@ -4393,6 +4510,9 @@
       <c r="F28">
         <v>-59</v>
       </c>
+      <c r="G28" t="s">
+        <v>494</v>
+      </c>
       <c r="H28">
         <v>6</v>
       </c>
@@ -4419,6 +4539,9 @@
       <c r="F29">
         <v>2440</v>
       </c>
+      <c r="G29" t="s">
+        <v>494</v>
+      </c>
       <c r="H29">
         <v>6</v>
       </c>
@@ -4445,6 +4568,9 @@
       <c r="F30">
         <v>-59</v>
       </c>
+      <c r="G30" t="s">
+        <v>494</v>
+      </c>
       <c r="H30">
         <v>6</v>
       </c>
@@ -4471,6 +4597,9 @@
       <c r="F31">
         <v>-59</v>
       </c>
+      <c r="G31" t="s">
+        <v>494</v>
+      </c>
       <c r="H31">
         <v>6</v>
       </c>
@@ -4497,6 +4626,9 @@
       <c r="F32">
         <v>40</v>
       </c>
+      <c r="G32" t="s">
+        <v>494</v>
+      </c>
       <c r="H32">
         <v>6</v>
       </c>
@@ -4523,6 +4655,9 @@
       <c r="F33">
         <v>-30</v>
       </c>
+      <c r="G33" t="s">
+        <v>494</v>
+      </c>
       <c r="H33">
         <v>6</v>
       </c>
@@ -4549,6 +4684,9 @@
       <c r="F34">
         <v>2469</v>
       </c>
+      <c r="G34" t="s">
+        <v>494</v>
+      </c>
       <c r="H34">
         <v>6</v>
       </c>
@@ -4575,6 +4713,9 @@
       <c r="F35">
         <v>-29</v>
       </c>
+      <c r="G35" t="s">
+        <v>494</v>
+      </c>
       <c r="H35">
         <v>6</v>
       </c>
@@ -4601,6 +4742,9 @@
       <c r="F36">
         <v>-29</v>
       </c>
+      <c r="G36" t="s">
+        <v>494</v>
+      </c>
       <c r="H36">
         <v>6</v>
       </c>
@@ -4627,6 +4771,9 @@
       <c r="F37">
         <v>2469</v>
       </c>
+      <c r="G37" t="s">
+        <v>494</v>
+      </c>
       <c r="H37">
         <v>6</v>
       </c>
@@ -4653,6 +4800,9 @@
       <c r="F38">
         <v>-29</v>
       </c>
+      <c r="G38" t="s">
+        <v>494</v>
+      </c>
       <c r="H38">
         <v>6</v>
       </c>
@@ -4679,6 +4829,9 @@
       <c r="F39">
         <v>-29</v>
       </c>
+      <c r="G39" t="s">
+        <v>494</v>
+      </c>
       <c r="H39">
         <v>6</v>
       </c>
@@ -4705,6 +4858,9 @@
       <c r="F40">
         <v>70</v>
       </c>
+      <c r="G40" t="s">
+        <v>494</v>
+      </c>
       <c r="H40">
         <v>6</v>
       </c>
@@ -4731,6 +4887,9 @@
       <c r="F41">
         <v>-30</v>
       </c>
+      <c r="G41" t="s">
+        <v>494</v>
+      </c>
       <c r="H41">
         <v>6</v>
       </c>
@@ -4757,6 +4916,9 @@
       <c r="F42">
         <v>70</v>
       </c>
+      <c r="G42" t="s">
+        <v>494</v>
+      </c>
       <c r="H42">
         <v>6</v>
       </c>
@@ -4783,6 +4945,9 @@
       <c r="F43">
         <v>39</v>
       </c>
+      <c r="G43" t="s">
+        <v>494</v>
+      </c>
       <c r="H43">
         <v>6</v>
       </c>
@@ -4809,6 +4974,9 @@
       <c r="F44">
         <v>190</v>
       </c>
+      <c r="G44" t="s">
+        <v>494</v>
+      </c>
       <c r="H44">
         <v>6</v>
       </c>
@@ -4835,6 +5003,9 @@
       <c r="F45">
         <v>189</v>
       </c>
+      <c r="G45" t="s">
+        <v>494</v>
+      </c>
       <c r="H45">
         <v>6</v>
       </c>
@@ -4861,6 +5032,9 @@
       <c r="F46">
         <v>190</v>
       </c>
+      <c r="G46" t="s">
+        <v>494</v>
+      </c>
       <c r="H46">
         <v>6</v>
       </c>
@@ -4887,6 +5061,9 @@
       <c r="F47">
         <v>190</v>
       </c>
+      <c r="G47" t="s">
+        <v>494</v>
+      </c>
       <c r="H47">
         <v>6</v>
       </c>
@@ -4913,6 +5090,9 @@
       <c r="F48">
         <v>189</v>
       </c>
+      <c r="G48" t="s">
+        <v>494</v>
+      </c>
       <c r="H48">
         <v>6</v>
       </c>
@@ -4939,6 +5119,9 @@
       <c r="F49">
         <v>90</v>
       </c>
+      <c r="G49" t="s">
+        <v>494</v>
+      </c>
       <c r="H49">
         <v>6</v>
       </c>
@@ -4965,6 +5148,9 @@
       <c r="F50">
         <v>189</v>
       </c>
+      <c r="G50" t="s">
+        <v>494</v>
+      </c>
       <c r="H50">
         <v>6</v>
       </c>
@@ -4990,6 +5176,9 @@
       </c>
       <c r="F51">
         <v>89</v>
+      </c>
+      <c r="G51" t="s">
+        <v>494</v>
       </c>
       <c r="H51">
         <v>6</v>
@@ -5036,7 +5225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I145"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
@@ -9388,7 +9577,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I15"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9615,6 +9804,9 @@
       <c r="F8">
         <v>-45</v>
       </c>
+      <c r="G8" t="s">
+        <v>494</v>
+      </c>
       <c r="H8">
         <v>6</v>
       </c>
@@ -9785,6 +9977,9 @@
       </c>
       <c r="F14">
         <v>825</v>
+      </c>
+      <c r="G14" t="s">
+        <v>494</v>
       </c>
       <c r="H14">
         <v>6</v>
@@ -9832,7 +10027,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I14"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9995,6 +10190,9 @@
       <c r="F6">
         <v>-100</v>
       </c>
+      <c r="G6" t="s">
+        <v>494</v>
+      </c>
       <c r="H6">
         <v>6</v>
       </c>
@@ -10021,6 +10219,9 @@
       <c r="F7">
         <v>60</v>
       </c>
+      <c r="G7" t="s">
+        <v>494</v>
+      </c>
       <c r="H7">
         <v>6</v>
       </c>
@@ -10047,6 +10248,9 @@
       <c r="F8">
         <v>60</v>
       </c>
+      <c r="G8" t="s">
+        <v>494</v>
+      </c>
       <c r="H8">
         <v>6</v>
       </c>
@@ -10217,6 +10421,9 @@
       </c>
       <c r="F14">
         <v>5</v>
+      </c>
+      <c r="G14" t="s">
+        <v>494</v>
       </c>
       <c r="H14">
         <v>6</v>
@@ -10234,7 +10441,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -10286,6 +10495,9 @@
       <c r="F2">
         <v>0</v>
       </c>
+      <c r="G2" t="s">
+        <v>494</v>
+      </c>
       <c r="H2">
         <v>6</v>
       </c>
@@ -10312,8 +10524,8 @@
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3">
-        <v>7</v>
+      <c r="G3" t="s">
+        <v>494</v>
       </c>
       <c r="H3">
         <v>6</v>
@@ -10341,8 +10553,8 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4">
-        <v>7</v>
+      <c r="G4" t="s">
+        <v>494</v>
       </c>
       <c r="H4">
         <v>6</v>
@@ -10370,6 +10582,9 @@
       <c r="F5">
         <v>0</v>
       </c>
+      <c r="G5" t="s">
+        <v>494</v>
+      </c>
       <c r="H5">
         <v>6</v>
       </c>
@@ -10396,6 +10611,9 @@
       <c r="F6">
         <v>0</v>
       </c>
+      <c r="G6" t="s">
+        <v>494</v>
+      </c>
       <c r="H6">
         <v>6</v>
       </c>
@@ -10422,6 +10640,9 @@
       <c r="F7">
         <v>0</v>
       </c>
+      <c r="G7" t="s">
+        <v>494</v>
+      </c>
       <c r="H7">
         <v>6</v>
       </c>
@@ -10448,8 +10669,8 @@
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8">
-        <v>7</v>
+      <c r="G8" t="s">
+        <v>494</v>
       </c>
       <c r="H8">
         <v>6</v>

--- a/Greyform-linux/Python_Application/exporteddatass.xlsx
+++ b/Greyform-linux/Python_Application/exporteddatass.xlsx
@@ -2014,7 +2014,7 @@
         <v>3968</v>
       </c>
       <c r="M3">
-        <v>1440</v>
+        <v>1935</v>
       </c>
       <c r="O3">
         <v>114.4</v>
@@ -2058,7 +2058,7 @@
         <v>1500</v>
       </c>
       <c r="O4">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -2096,7 +2096,7 @@
         <v>3968</v>
       </c>
       <c r="M5">
-        <v>1935</v>
+        <v>1440</v>
       </c>
       <c r="O5">
         <v>20</v>
@@ -2137,7 +2137,7 @@
         <v>3968</v>
       </c>
       <c r="M6">
-        <v>1935</v>
+        <v>1440</v>
       </c>
       <c r="O6">
         <v>20</v>
@@ -2178,7 +2178,7 @@
         <v>3968</v>
       </c>
       <c r="M7">
-        <v>1935</v>
+        <v>1440</v>
       </c>
       <c r="O7">
         <v>20</v>
@@ -2219,7 +2219,7 @@
         <v>3968</v>
       </c>
       <c r="M8">
-        <v>1935</v>
+        <v>1440</v>
       </c>
       <c r="O8">
         <v>20</v>
@@ -2342,7 +2342,7 @@
         <v>3968</v>
       </c>
       <c r="M11">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O11">
         <v>20.4</v>
@@ -2383,7 +2383,7 @@
         <v>3968</v>
       </c>
       <c r="M12">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O12">
         <v>20.4</v>
@@ -2424,7 +2424,7 @@
         <v>3968</v>
       </c>
       <c r="M13">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O13">
         <v>20</v>
@@ -2465,7 +2465,7 @@
         <v>3968</v>
       </c>
       <c r="M14">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O14">
         <v>20</v>
@@ -2506,7 +2506,7 @@
         <v>3968</v>
       </c>
       <c r="M15">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O15">
         <v>20</v>
@@ -2547,7 +2547,7 @@
         <v>3968</v>
       </c>
       <c r="M16">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O16">
         <v>20.4</v>
@@ -2588,7 +2588,7 @@
         <v>3968</v>
       </c>
       <c r="M17">
-        <v>1935</v>
+        <v>1440</v>
       </c>
       <c r="O17">
         <v>20</v>
@@ -2629,7 +2629,7 @@
         <v>3968</v>
       </c>
       <c r="M18">
-        <v>1935</v>
+        <v>1440</v>
       </c>
       <c r="O18">
         <v>20</v>
@@ -2752,7 +2752,7 @@
         <v>3968</v>
       </c>
       <c r="M21">
-        <v>1935</v>
+        <v>1440</v>
       </c>
       <c r="O21">
         <v>25</v>
@@ -2793,7 +2793,7 @@
         <v>3968</v>
       </c>
       <c r="M22">
-        <v>1935</v>
+        <v>1440</v>
       </c>
       <c r="O22">
         <v>25</v>
@@ -2834,7 +2834,7 @@
         <v>3968</v>
       </c>
       <c r="M23">
-        <v>1935</v>
+        <v>1440</v>
       </c>
       <c r="O23">
         <v>25</v>
@@ -2875,7 +2875,7 @@
         <v>3968</v>
       </c>
       <c r="M24">
-        <v>1935</v>
+        <v>1440</v>
       </c>
       <c r="O24">
         <v>25</v>
@@ -2916,7 +2916,7 @@
         <v>3968</v>
       </c>
       <c r="M25">
-        <v>1935</v>
+        <v>1440</v>
       </c>
       <c r="O25">
         <v>25</v>
@@ -2957,7 +2957,7 @@
         <v>3968</v>
       </c>
       <c r="M26">
-        <v>1935</v>
+        <v>1440</v>
       </c>
       <c r="O26">
         <v>25</v>
@@ -2998,7 +2998,7 @@
         <v>3968</v>
       </c>
       <c r="M27">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O27">
         <v>20</v>
@@ -3080,7 +3080,7 @@
         <v>3968</v>
       </c>
       <c r="M29">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O29">
         <v>20</v>
@@ -3121,7 +3121,7 @@
         <v>3968</v>
       </c>
       <c r="M30">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O30">
         <v>20</v>
@@ -3162,7 +3162,7 @@
         <v>3968</v>
       </c>
       <c r="M31">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O31">
         <v>20</v>
@@ -3203,7 +3203,7 @@
         <v>3968</v>
       </c>
       <c r="M32">
-        <v>1935</v>
+        <v>1440</v>
       </c>
       <c r="O32">
         <v>25</v>
@@ -3244,7 +3244,7 @@
         <v>3968</v>
       </c>
       <c r="M33">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O33">
         <v>20</v>
@@ -3285,7 +3285,7 @@
         <v>3968</v>
       </c>
       <c r="M34">
-        <v>1935</v>
+        <v>1440</v>
       </c>
       <c r="O34">
         <v>20</v>
@@ -3370,7 +3370,7 @@
         <v>1500</v>
       </c>
       <c r="O36">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -3411,7 +3411,7 @@
         <v>1500</v>
       </c>
       <c r="O37">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -3452,7 +3452,7 @@
         <v>1500</v>
       </c>
       <c r="O38">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -3493,7 +3493,7 @@
         <v>1500</v>
       </c>
       <c r="O39">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -3613,7 +3613,7 @@
         <v>3968</v>
       </c>
       <c r="M42">
-        <v>1935</v>
+        <v>1440</v>
       </c>
       <c r="O42">
         <v>25</v>
@@ -3654,7 +3654,7 @@
         <v>3968</v>
       </c>
       <c r="M43">
-        <v>1935</v>
+        <v>1440</v>
       </c>
       <c r="O43">
         <v>25</v>
@@ -3736,7 +3736,7 @@
         <v>3968</v>
       </c>
       <c r="M45">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O45">
         <v>25</v>
@@ -3777,7 +3777,7 @@
         <v>3968</v>
       </c>
       <c r="M46">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O46">
         <v>20</v>
@@ -3900,7 +3900,7 @@
         <v>3968</v>
       </c>
       <c r="M49">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O49">
         <v>25</v>
@@ -3941,7 +3941,7 @@
         <v>3968</v>
       </c>
       <c r="M50">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O50">
         <v>20</v>
@@ -3982,7 +3982,7 @@
         <v>3968</v>
       </c>
       <c r="M51">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O51">
         <v>20</v>
@@ -4105,7 +4105,7 @@
         <v>3968</v>
       </c>
       <c r="M54">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O54">
         <v>20</v>
@@ -4187,7 +4187,7 @@
         <v>3968</v>
       </c>
       <c r="M56">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O56">
         <v>20</v>
@@ -4285,7 +4285,7 @@
         <v>3968</v>
       </c>
       <c r="M2">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
   </sheetData>
@@ -6470,7 +6470,7 @@
         <v>3968</v>
       </c>
       <c r="M52">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
   </sheetData>
@@ -6641,7 +6641,7 @@
         <v>3968</v>
       </c>
       <c r="M4">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -6679,7 +6679,7 @@
         <v>3968</v>
       </c>
       <c r="M5">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -6755,7 +6755,7 @@
         <v>3968</v>
       </c>
       <c r="M7">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -6907,7 +6907,7 @@
         <v>3968</v>
       </c>
       <c r="M11">
-        <v>1440</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -6945,7 +6945,7 @@
         <v>3968</v>
       </c>
       <c r="M12">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -6983,7 +6983,7 @@
         <v>3968</v>
       </c>
       <c r="M13">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -7325,7 +7325,7 @@
         <v>3968</v>
       </c>
       <c r="M22">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -7363,7 +7363,7 @@
         <v>3968</v>
       </c>
       <c r="M23">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -7401,7 +7401,7 @@
         <v>3968</v>
       </c>
       <c r="M24">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -7439,7 +7439,7 @@
         <v>3968</v>
       </c>
       <c r="M25">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -7477,7 +7477,7 @@
         <v>3968</v>
       </c>
       <c r="M26">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -7515,7 +7515,7 @@
         <v>3968</v>
       </c>
       <c r="M27">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -7553,7 +7553,7 @@
         <v>3968</v>
       </c>
       <c r="M28">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -7591,7 +7591,7 @@
         <v>3968</v>
       </c>
       <c r="M29">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -7629,7 +7629,7 @@
         <v>3968</v>
       </c>
       <c r="M30">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -7667,7 +7667,7 @@
         <v>3968</v>
       </c>
       <c r="M31">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -7705,7 +7705,7 @@
         <v>3968</v>
       </c>
       <c r="M32">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -7743,7 +7743,7 @@
         <v>3968</v>
       </c>
       <c r="M33">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -7781,7 +7781,7 @@
         <v>3968</v>
       </c>
       <c r="M34">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -7819,7 +7819,7 @@
         <v>3968</v>
       </c>
       <c r="M35">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -7857,7 +7857,7 @@
         <v>3968</v>
       </c>
       <c r="M36">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -8047,7 +8047,7 @@
         <v>3968</v>
       </c>
       <c r="M41">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -8085,7 +8085,7 @@
         <v>3968</v>
       </c>
       <c r="M42">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -8123,7 +8123,7 @@
         <v>3968</v>
       </c>
       <c r="M43">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -8161,7 +8161,7 @@
         <v>3968</v>
       </c>
       <c r="M44">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -8199,7 +8199,7 @@
         <v>3968</v>
       </c>
       <c r="M45">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -8237,7 +8237,7 @@
         <v>3968</v>
       </c>
       <c r="M46">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -8275,7 +8275,7 @@
         <v>3968</v>
       </c>
       <c r="M47">
-        <v>1440</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -8313,7 +8313,7 @@
         <v>3968</v>
       </c>
       <c r="M48">
-        <v>1440</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -8351,7 +8351,7 @@
         <v>3968</v>
       </c>
       <c r="M49">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -8389,7 +8389,7 @@
         <v>3968</v>
       </c>
       <c r="M50">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -8427,7 +8427,7 @@
         <v>3968</v>
       </c>
       <c r="M51">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -8465,7 +8465,7 @@
         <v>3968</v>
       </c>
       <c r="M52">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -8503,7 +8503,7 @@
         <v>3968</v>
       </c>
       <c r="M53">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -8541,7 +8541,7 @@
         <v>3968</v>
       </c>
       <c r="M54">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -8579,7 +8579,7 @@
         <v>3968</v>
       </c>
       <c r="M55">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -8617,7 +8617,7 @@
         <v>3968</v>
       </c>
       <c r="M56">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -8655,7 +8655,7 @@
         <v>3968</v>
       </c>
       <c r="M57">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -8693,7 +8693,7 @@
         <v>3968</v>
       </c>
       <c r="M58">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -8731,7 +8731,7 @@
         <v>3968</v>
       </c>
       <c r="M59">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -8769,7 +8769,7 @@
         <v>3968</v>
       </c>
       <c r="M60">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -8807,7 +8807,7 @@
         <v>3968</v>
       </c>
       <c r="M61">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -8845,7 +8845,7 @@
         <v>3968</v>
       </c>
       <c r="M62">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -8883,7 +8883,7 @@
         <v>3968</v>
       </c>
       <c r="M63">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -8921,7 +8921,7 @@
         <v>3968</v>
       </c>
       <c r="M64">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -8959,7 +8959,7 @@
         <v>3968</v>
       </c>
       <c r="M65">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -9415,7 +9415,7 @@
         <v>3968</v>
       </c>
       <c r="M77">
-        <v>2835</v>
+        <v>900</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -9453,7 +9453,7 @@
         <v>3968</v>
       </c>
       <c r="M78">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -9491,7 +9491,7 @@
         <v>3968</v>
       </c>
       <c r="M79">
-        <v>1440</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -9529,7 +9529,7 @@
         <v>3968</v>
       </c>
       <c r="M80">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -10213,7 +10213,7 @@
         <v>3968</v>
       </c>
       <c r="M98">
-        <v>2835</v>
+        <v>900</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -10251,7 +10251,7 @@
         <v>3968</v>
       </c>
       <c r="M99">
-        <v>2835</v>
+        <v>900</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -10289,7 +10289,7 @@
         <v>3968</v>
       </c>
       <c r="M100">
-        <v>2835</v>
+        <v>900</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -10327,7 +10327,7 @@
         <v>3968</v>
       </c>
       <c r="M101">
-        <v>2835</v>
+        <v>900</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -10365,7 +10365,7 @@
         <v>3968</v>
       </c>
       <c r="M102">
-        <v>2835</v>
+        <v>900</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -10403,7 +10403,7 @@
         <v>3968</v>
       </c>
       <c r="M103">
-        <v>2835</v>
+        <v>900</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -10441,7 +10441,7 @@
         <v>3968</v>
       </c>
       <c r="M104">
-        <v>2835</v>
+        <v>900</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -10479,7 +10479,7 @@
         <v>3968</v>
       </c>
       <c r="M105">
-        <v>2835</v>
+        <v>900</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -10745,7 +10745,7 @@
         <v>3968</v>
       </c>
       <c r="M112">
-        <v>1440</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -10783,7 +10783,7 @@
         <v>3968</v>
       </c>
       <c r="M113">
-        <v>1440</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -10821,7 +10821,7 @@
         <v>3968</v>
       </c>
       <c r="M114">
-        <v>1440</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -10859,7 +10859,7 @@
         <v>3968</v>
       </c>
       <c r="M115">
-        <v>1440</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -10897,7 +10897,7 @@
         <v>3968</v>
       </c>
       <c r="M116">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -10935,7 +10935,7 @@
         <v>3968</v>
       </c>
       <c r="M117">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -10973,7 +10973,7 @@
         <v>3968</v>
       </c>
       <c r="M118">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -11011,7 +11011,7 @@
         <v>3968</v>
       </c>
       <c r="M119">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -11049,7 +11049,7 @@
         <v>3968</v>
       </c>
       <c r="M120">
-        <v>1440</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -11087,7 +11087,7 @@
         <v>3968</v>
       </c>
       <c r="M121">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -11125,7 +11125,7 @@
         <v>3968</v>
       </c>
       <c r="M122">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -11163,7 +11163,7 @@
         <v>3968</v>
       </c>
       <c r="M123">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -13722,7 +13722,7 @@
         <v>3968</v>
       </c>
       <c r="M2">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
   </sheetData>
@@ -13855,7 +13855,7 @@
         <v>3968</v>
       </c>
       <c r="M3">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -13893,7 +13893,7 @@
         <v>3968</v>
       </c>
       <c r="M4">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="5" spans="1:15">
